--- a/EmailService/EmailApp/EmailApp/Files/Report.xlsx
+++ b/EmailService/EmailApp/EmailApp/Files/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Event ID</x:t>
   </x:si>
@@ -55,30 +55,33 @@
     <x:t>EVNT00047261</x:t>
   </x:si>
   <x:si>
+    <x:t>JAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Singapore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Outreach Singapore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KWONG WAI SHIU HOSPITAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bags of Joy Distribution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>705, Serangoon Road, Singapore, Singapore, Singapore-328127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVNT00046103</x:t>
+  </x:si>
+  <x:si>
     <x:t>DEC</x:t>
   </x:si>
   <x:si>
-    <x:t>Singapore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Outreach Singapore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KWONG WAI SHIU HOSPITAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bags of Joy Distribution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>705, Serangoon Road, Singapore, Singapore, Singapore-328127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EVNT00046103</x:t>
-  </x:si>
-  <x:si>
     <x:t>Chennai</x:t>
   </x:si>
   <x:si>
@@ -179,6 +182,18 @@
   </x:si>
   <x:si>
     <x:t>Amman Nagar, Trisulam, Chennai, Tamil Nadu, India-600043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVNT00046102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVNT00047263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVNT00046105</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -536,7 +551,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L9"/>
+  <x:dimension ref="A1:L12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -600,7 +615,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="1">
-        <x:v>43112</x:v>
+        <x:v>43449</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>18</x:v>
@@ -623,19 +638,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="1">
         <x:v>43112</x:v>
@@ -644,7 +659,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>14</x:v>
@@ -658,22 +673,22 @@
     </x:row>
     <x:row r="4" spans="1:12">
       <x:c r="A4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="1">
         <x:v>43112</x:v>
@@ -682,7 +697,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
         <x:v>4</x:v>
@@ -696,22 +711,22 @@
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G5" s="1">
         <x:v>43112</x:v>
@@ -720,7 +735,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>2</x:v>
@@ -734,22 +749,22 @@
     </x:row>
     <x:row r="6" spans="1:12">
       <x:c r="A6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="1">
         <x:v>43324</x:v>
@@ -758,7 +773,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>2</x:v>
@@ -772,22 +787,22 @@
     </x:row>
     <x:row r="7" spans="1:12">
       <x:c r="A7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="1">
         <x:v>43171</x:v>
@@ -796,7 +811,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>2</x:v>
@@ -810,22 +825,22 @@
     </x:row>
     <x:row r="8" spans="1:12">
       <x:c r="A8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G8" s="1">
         <x:v>43112</x:v>
@@ -834,7 +849,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>5</x:v>
@@ -848,22 +863,22 @@
     </x:row>
     <x:row r="9" spans="1:12">
       <x:c r="A9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G9" s="1">
         <x:v>43202</x:v>
@@ -872,7 +887,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>6</x:v>
@@ -882,6 +897,120 @@
       </x:c>
       <x:c r="L9" s="0" t="n">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:12">
+      <x:c r="A10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G10" s="1">
+        <x:v>43435</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G11" s="1">
+        <x:v>43449</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="n">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G12" s="1">
+        <x:v>43435</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="n">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
